--- a/public/templates/DSTv1.xlsx
+++ b/public/templates/DSTv1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashbeemorgado/devs/lumen/public/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nelsontan/Projects/Lumen/public/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2920C9C2-686D-C243-A0A5-CF73391F4B47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF72EFF4-BFF8-7240-8069-2ABFE6733BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8420" yWindow="500" windowWidth="29980" windowHeight="19960" xr2:uid="{B4D30BE5-B57A-5B48-BA86-20B17EA52FF7}"/>
+    <workbookView xWindow="5860" yWindow="500" windowWidth="29980" windowHeight="19960" xr2:uid="{B4D30BE5-B57A-5B48-BA86-20B17EA52FF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="135">
   <si>
     <t>LIGHT MICROFINANCE, INC.</t>
   </si>
@@ -428,6 +435,24 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>=(1+G69)^52-1</t>
+  </si>
+  <si>
+    <t>=((1+G69)^(52/12)-1)</t>
+  </si>
+  <si>
+    <t>=IF($D$9&gt;0,IRR(G18:G67,0.09),1)</t>
+  </si>
+  <si>
+    <t>=SUM(F19:F67)</t>
+  </si>
+  <si>
+    <t>=SUM(E19:E67)</t>
+  </si>
+  <si>
+    <t>=SUM(D19:D67)</t>
   </si>
 </sst>
 </file>
@@ -957,6 +982,9 @@
     <xf numFmtId="10" fontId="19" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
@@ -1131,9 +1159,6 @@
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="16" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1502,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41788AC7-45DD-4540-BA6D-A308FB1A17CD}">
   <dimension ref="A1:AI133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="89" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="89" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1534,11 +1559,11 @@
     <col min="24" max="24" width="8.5" style="10" customWidth="1"/>
     <col min="25" max="25" width="14.5" style="10" customWidth="1"/>
     <col min="26" max="26" width="5" style="6" customWidth="1"/>
-    <col min="27" max="27" width="16.1640625" style="72" customWidth="1"/>
+    <col min="27" max="27" width="16.1640625" style="73" customWidth="1"/>
     <col min="28" max="28" width="18" customWidth="1"/>
-    <col min="29" max="30" width="18" style="72" customWidth="1"/>
+    <col min="29" max="30" width="18" style="73" customWidth="1"/>
     <col min="31" max="31" width="18" customWidth="1"/>
-    <col min="32" max="32" width="18" style="72" customWidth="1"/>
+    <col min="32" max="32" width="18" style="73" customWidth="1"/>
     <col min="33" max="35" width="15.83203125" hidden="1" customWidth="1"/>
     <col min="36" max="313" width="0" hidden="1" customWidth="1"/>
   </cols>
@@ -1709,7 +1734,7 @@
       <c r="AC4" s="23"/>
       <c r="AD4" s="24"/>
       <c r="AE4" s="24"/>
-      <c r="AF4" s="129"/>
+      <c r="AF4" s="130"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B5" s="142" t="s">
@@ -1745,7 +1770,7 @@
       <c r="AC5" s="23"/>
       <c r="AD5" s="29"/>
       <c r="AE5" s="29"/>
-      <c r="AF5" s="130"/>
+      <c r="AF5" s="131"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L6" s="27" t="s">
@@ -1771,7 +1796,7 @@
       <c r="AC6" s="32"/>
       <c r="AD6" s="29"/>
       <c r="AE6" s="29"/>
-      <c r="AF6" s="130"/>
+      <c r="AF6" s="131"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
@@ -1819,7 +1844,7 @@
       <c r="AC7" s="32"/>
       <c r="AD7" s="29"/>
       <c r="AE7" s="29"/>
-      <c r="AF7" s="130"/>
+      <c r="AF7" s="131"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="38"/>
@@ -1847,7 +1872,7 @@
       <c r="AC8" s="32"/>
       <c r="AD8" s="29"/>
       <c r="AE8" s="29"/>
-      <c r="AF8" s="130"/>
+      <c r="AF8" s="131"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
@@ -1880,7 +1905,7 @@
       <c r="AC9" s="32"/>
       <c r="AD9" s="29"/>
       <c r="AE9" s="29"/>
-      <c r="AF9" s="130"/>
+      <c r="AF9" s="131"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
@@ -1913,7 +1938,7 @@
       <c r="AC10" s="32"/>
       <c r="AD10" s="29"/>
       <c r="AE10" s="29"/>
-      <c r="AF10" s="130"/>
+      <c r="AF10" s="131"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
@@ -1923,8 +1948,8 @@
       <c r="C11" s="4"/>
       <c r="D11" s="49"/>
       <c r="E11" s="55"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="56" t="s">
+      <c r="F11" s="56"/>
+      <c r="G11" s="57" t="s">
         <v>38</v>
       </c>
       <c r="H11" s="43"/>
@@ -1936,8 +1961,8 @@
       </c>
       <c r="N11" s="10"/>
       <c r="O11" s="53"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
       <c r="Z11" s="21"/>
       <c r="AA11" s="28">
         <v>7</v>
@@ -1946,7 +1971,7 @@
       <c r="AC11" s="32"/>
       <c r="AD11" s="29"/>
       <c r="AE11" s="29"/>
-      <c r="AF11" s="130"/>
+      <c r="AF11" s="131"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
@@ -1956,11 +1981,11 @@
       <c r="C12" s="4"/>
       <c r="D12" s="49"/>
       <c r="E12" s="49"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="56" t="s">
+      <c r="F12" s="56"/>
+      <c r="G12" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="58"/>
+      <c r="H12" s="59"/>
       <c r="I12" s="5"/>
       <c r="J12" s="38"/>
       <c r="L12" s="46"/>
@@ -1982,7 +2007,7 @@
       <c r="AC12" s="32"/>
       <c r="AD12" s="29"/>
       <c r="AE12" s="29"/>
-      <c r="AF12" s="130"/>
+      <c r="AF12" s="131"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
@@ -1990,10 +2015,10 @@
         <v>44</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="61"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="62"/>
       <c r="H13" s="44"/>
       <c r="L13" s="34">
         <v>2</v>
@@ -2018,7 +2043,7 @@
       <c r="AC13" s="32"/>
       <c r="AD13" s="29"/>
       <c r="AE13" s="29"/>
-      <c r="AF13" s="130"/>
+      <c r="AF13" s="131"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
@@ -2029,7 +2054,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="62"/>
+      <c r="H14" s="63"/>
       <c r="I14" s="5"/>
       <c r="L14" s="46"/>
       <c r="M14" s="10" t="s">
@@ -2041,11 +2066,11 @@
       <c r="U14" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="V14" s="63"/>
+      <c r="V14" s="64"/>
       <c r="X14" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="Y14" s="64"/>
+      <c r="Y14" s="65"/>
       <c r="Z14" s="21"/>
       <c r="AA14" s="28">
         <v>10</v>
@@ -2054,24 +2079,24 @@
       <c r="AC14" s="32"/>
       <c r="AD14" s="29"/>
       <c r="AE14" s="29"/>
-      <c r="AF14" s="130"/>
+      <c r="AF14" s="131"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="62">
+      <c r="D15" s="63">
         <v>52</v>
       </c>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
       <c r="I15" s="5"/>
       <c r="L15" s="46"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
       <c r="U15" s="47"/>
       <c r="X15" s="47"/>
       <c r="Z15" s="21"/>
@@ -2082,7 +2107,7 @@
       <c r="AC15" s="32"/>
       <c r="AD15" s="29"/>
       <c r="AE15" s="29"/>
-      <c r="AF15" s="130"/>
+      <c r="AF15" s="131"/>
     </row>
     <row r="16" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
@@ -2116,11 +2141,11 @@
       <c r="U16" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="V16" s="66"/>
+      <c r="V16" s="67"/>
       <c r="X16" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="Y16" s="66"/>
+      <c r="Y16" s="67"/>
       <c r="Z16" s="21" t="s">
         <v>13</v>
       </c>
@@ -2131,7 +2156,7 @@
       <c r="AC16" s="32"/>
       <c r="AD16" s="29"/>
       <c r="AE16" s="29"/>
-      <c r="AF16" s="130"/>
+      <c r="AF16" s="131"/>
     </row>
     <row r="17" spans="1:32" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
@@ -2176,7 +2201,7 @@
       <c r="W17" s="25"/>
       <c r="X17" s="25"/>
       <c r="Y17" s="25"/>
-      <c r="Z17" s="67"/>
+      <c r="Z17" s="68"/>
       <c r="AA17" s="28">
         <v>13</v>
       </c>
@@ -2184,19 +2209,19 @@
       <c r="AC17" s="32"/>
       <c r="AD17" s="29"/>
       <c r="AE17" s="29"/>
-      <c r="AF17" s="130"/>
+      <c r="AF17" s="131"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="71"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="72"/>
       <c r="L18" s="46"/>
       <c r="M18" s="35" t="s">
         <v>63</v>
@@ -2211,19 +2236,19 @@
       <c r="AC18" s="32"/>
       <c r="AD18" s="29"/>
       <c r="AE18" s="29"/>
-      <c r="AF18" s="130"/>
+      <c r="AF18" s="131"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="30">
         <v>0</v>
       </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="J19" s="71"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="J19" s="72"/>
       <c r="L19" s="46"/>
       <c r="M19" s="10" t="s">
         <v>48</v>
@@ -2234,11 +2259,11 @@
       <c r="U19" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="V19" s="63"/>
+      <c r="V19" s="64"/>
       <c r="X19" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="Y19" s="64"/>
+      <c r="Y19" s="65"/>
       <c r="Z19" s="21"/>
       <c r="AA19" s="28">
         <v>15</v>
@@ -2247,20 +2272,20 @@
       <c r="AC19" s="32"/>
       <c r="AD19" s="29"/>
       <c r="AE19" s="29"/>
-      <c r="AF19" s="130"/>
+      <c r="AF19" s="131"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="30">
         <v>1</v>
       </c>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="69"/>
-      <c r="J20" s="71"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="70"/>
+      <c r="J20" s="72"/>
       <c r="L20" s="34">
         <v>3</v>
       </c>
@@ -2271,9 +2296,9 @@
         <v>66</v>
       </c>
       <c r="U20" s="47"/>
-      <c r="V20" s="63"/>
+      <c r="V20" s="64"/>
       <c r="X20" s="47"/>
-      <c r="Y20" s="64"/>
+      <c r="Y20" s="65"/>
       <c r="Z20" s="21"/>
       <c r="AA20" s="28">
         <v>16</v>
@@ -2282,7 +2307,7 @@
       <c r="AC20" s="32"/>
       <c r="AD20" s="29"/>
       <c r="AE20" s="29"/>
-      <c r="AF20" s="130"/>
+      <c r="AF20" s="131"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
@@ -2290,13 +2315,13 @@
         <f>B20+1</f>
         <v>2</v>
       </c>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="69"/>
-      <c r="J21" s="71"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="70"/>
+      <c r="J21" s="72"/>
       <c r="L21" s="46"/>
       <c r="M21" s="10" t="s">
         <v>67</v>
@@ -2305,9 +2330,9 @@
         <v>68</v>
       </c>
       <c r="U21" s="47"/>
-      <c r="V21" s="63"/>
+      <c r="V21" s="64"/>
       <c r="X21" s="47"/>
-      <c r="Y21" s="64"/>
+      <c r="Y21" s="65"/>
       <c r="Z21" s="21"/>
       <c r="AA21" s="28">
         <v>17</v>
@@ -2316,7 +2341,7 @@
       <c r="AC21" s="32"/>
       <c r="AD21" s="29"/>
       <c r="AE21" s="29"/>
-      <c r="AF21" s="130"/>
+      <c r="AF21" s="131"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
@@ -2324,13 +2349,13 @@
         <f t="shared" ref="B22:B67" si="0">B21+1</f>
         <v>3</v>
       </c>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="69"/>
-      <c r="J22" s="71"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="70"/>
+      <c r="J22" s="72"/>
       <c r="L22" s="46"/>
       <c r="M22" s="10" t="s">
         <v>69</v>
@@ -2339,9 +2364,9 @@
         <v>70</v>
       </c>
       <c r="U22" s="47"/>
-      <c r="V22" s="63"/>
+      <c r="V22" s="64"/>
       <c r="X22" s="47"/>
-      <c r="Y22" s="63"/>
+      <c r="Y22" s="64"/>
       <c r="Z22" s="21"/>
       <c r="AA22" s="28">
         <v>18</v>
@@ -2350,7 +2375,7 @@
       <c r="AC22" s="32"/>
       <c r="AD22" s="29"/>
       <c r="AE22" s="29"/>
-      <c r="AF22" s="130"/>
+      <c r="AF22" s="131"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
@@ -2358,13 +2383,13 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="69"/>
-      <c r="J23" s="71"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="70"/>
+      <c r="J23" s="72"/>
       <c r="L23" s="46"/>
       <c r="M23" s="10" t="s">
         <v>71</v>
@@ -2373,9 +2398,9 @@
         <v>72</v>
       </c>
       <c r="U23" s="47"/>
-      <c r="V23" s="63"/>
+      <c r="V23" s="64"/>
       <c r="X23" s="47"/>
-      <c r="Y23" s="63"/>
+      <c r="Y23" s="64"/>
       <c r="Z23" s="21"/>
       <c r="AA23" s="28">
         <v>19</v>
@@ -2384,7 +2409,7 @@
       <c r="AC23" s="32"/>
       <c r="AD23" s="29"/>
       <c r="AE23" s="29"/>
-      <c r="AF23" s="130"/>
+      <c r="AF23" s="131"/>
     </row>
     <row r="24" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
@@ -2392,13 +2417,13 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="69"/>
-      <c r="J24" s="71"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="70"/>
+      <c r="J24" s="72"/>
       <c r="L24" s="46"/>
       <c r="M24" s="9" t="s">
         <v>73</v>
@@ -2406,11 +2431,11 @@
       <c r="U24" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="V24" s="66"/>
+      <c r="V24" s="67"/>
       <c r="X24" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="Y24" s="66"/>
+      <c r="Y24" s="67"/>
       <c r="Z24" s="21" t="s">
         <v>14</v>
       </c>
@@ -2421,7 +2446,7 @@
       <c r="AC24" s="32"/>
       <c r="AD24" s="29"/>
       <c r="AE24" s="29"/>
-      <c r="AF24" s="130"/>
+      <c r="AF24" s="131"/>
     </row>
     <row r="25" spans="1:32" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
@@ -2429,13 +2454,13 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="69"/>
-      <c r="J25" s="71"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="70"/>
+      <c r="J25" s="72"/>
       <c r="L25" s="46"/>
       <c r="M25" s="9"/>
       <c r="U25" s="47"/>
@@ -2448,7 +2473,7 @@
       <c r="AC25" s="32"/>
       <c r="AD25" s="29"/>
       <c r="AE25" s="29"/>
-      <c r="AF25" s="130"/>
+      <c r="AF25" s="131"/>
     </row>
     <row r="26" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
@@ -2456,13 +2481,13 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="69"/>
-      <c r="J26" s="71"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="70"/>
+      <c r="J26" s="72"/>
       <c r="L26" s="46"/>
       <c r="M26" s="9" t="s">
         <v>74</v>
@@ -2471,7 +2496,7 @@
       <c r="X26" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="Y26" s="66"/>
+      <c r="Y26" s="67"/>
       <c r="Z26" s="21" t="s">
         <v>15</v>
       </c>
@@ -2482,7 +2507,7 @@
       <c r="AC26" s="32"/>
       <c r="AD26" s="29"/>
       <c r="AE26" s="29"/>
-      <c r="AF26" s="130"/>
+      <c r="AF26" s="131"/>
     </row>
     <row r="27" spans="1:32" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
@@ -2490,13 +2515,13 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="69"/>
-      <c r="J27" s="71"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="70"/>
+      <c r="J27" s="72"/>
       <c r="L27" s="46"/>
       <c r="M27" s="2" t="s">
         <v>75</v>
@@ -2513,7 +2538,7 @@
       <c r="W27" s="25"/>
       <c r="X27" s="25"/>
       <c r="Y27" s="52"/>
-      <c r="Z27" s="67"/>
+      <c r="Z27" s="68"/>
       <c r="AA27" s="28">
         <v>23</v>
       </c>
@@ -2521,7 +2546,7 @@
       <c r="AC27" s="32"/>
       <c r="AD27" s="29"/>
       <c r="AE27" s="29"/>
-      <c r="AF27" s="130"/>
+      <c r="AF27" s="131"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
@@ -2529,13 +2554,13 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="69"/>
-      <c r="J28" s="71"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="70"/>
+      <c r="J28" s="72"/>
       <c r="L28" s="34">
         <v>4</v>
       </c>
@@ -2545,7 +2570,7 @@
       <c r="X28" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="Y28" s="73"/>
+      <c r="Y28" s="74"/>
       <c r="Z28" s="21"/>
       <c r="AA28" s="28">
         <v>24</v>
@@ -2554,7 +2579,7 @@
       <c r="AC28" s="32"/>
       <c r="AD28" s="29"/>
       <c r="AE28" s="29"/>
-      <c r="AF28" s="130"/>
+      <c r="AF28" s="131"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
@@ -2562,14 +2587,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="69"/>
-      <c r="J29" s="71"/>
-      <c r="L29" s="74"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="70"/>
+      <c r="J29" s="72"/>
+      <c r="L29" s="75"/>
       <c r="M29" s="25"/>
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
@@ -2583,7 +2608,7 @@
       <c r="W29" s="25"/>
       <c r="X29" s="25"/>
       <c r="Y29" s="25"/>
-      <c r="Z29" s="67"/>
+      <c r="Z29" s="68"/>
       <c r="AA29" s="28">
         <v>25</v>
       </c>
@@ -2591,7 +2616,7 @@
       <c r="AC29" s="32"/>
       <c r="AD29" s="29"/>
       <c r="AE29" s="29"/>
-      <c r="AF29" s="130"/>
+      <c r="AF29" s="131"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
@@ -2599,13 +2624,13 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="69"/>
-      <c r="J30" s="71"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="70"/>
+      <c r="J30" s="72"/>
       <c r="L30" s="34">
         <v>5</v>
       </c>
@@ -2613,8 +2638,8 @@
         <v>77</v>
       </c>
       <c r="X30" s="36"/>
-      <c r="Y30" s="75"/>
-      <c r="Z30" s="76"/>
+      <c r="Y30" s="76"/>
+      <c r="Z30" s="77"/>
       <c r="AA30" s="28">
         <v>26</v>
       </c>
@@ -2622,7 +2647,7 @@
       <c r="AC30" s="32"/>
       <c r="AD30" s="29"/>
       <c r="AE30" s="29"/>
-      <c r="AF30" s="130"/>
+      <c r="AF30" s="131"/>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
@@ -2630,13 +2655,13 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="69"/>
-      <c r="J31" s="71"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="70"/>
+      <c r="J31" s="72"/>
       <c r="L31" s="34"/>
       <c r="M31" s="25"/>
       <c r="N31" s="35" t="s">
@@ -2652,7 +2677,7 @@
       <c r="AC31" s="32"/>
       <c r="AD31" s="29"/>
       <c r="AE31" s="29"/>
-      <c r="AF31" s="130"/>
+      <c r="AF31" s="131"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
@@ -2660,13 +2685,13 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="69"/>
-      <c r="J32" s="71"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="70"/>
+      <c r="J32" s="72"/>
       <c r="L32" s="34">
         <v>6</v>
       </c>
@@ -2674,16 +2699,16 @@
         <v>79</v>
       </c>
       <c r="X32" s="36"/>
-      <c r="Y32" s="77"/>
+      <c r="Y32" s="78"/>
       <c r="Z32" s="21"/>
       <c r="AA32" s="28">
         <v>28</v>
       </c>
       <c r="AB32" s="23"/>
-      <c r="AC32" s="78"/>
+      <c r="AC32" s="79"/>
       <c r="AD32" s="29"/>
       <c r="AE32" s="29"/>
-      <c r="AF32" s="130"/>
+      <c r="AF32" s="131"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
@@ -2691,28 +2716,28 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="69"/>
-      <c r="J33" s="71"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="70"/>
+      <c r="J33" s="72"/>
       <c r="L33" s="34"/>
       <c r="M33" s="7" t="s">
         <v>80</v>
       </c>
       <c r="X33" s="36"/>
       <c r="Y33" s="42"/>
-      <c r="Z33" s="76"/>
+      <c r="Z33" s="77"/>
       <c r="AA33" s="28">
         <v>29</v>
       </c>
       <c r="AB33" s="23"/>
-      <c r="AC33" s="78"/>
+      <c r="AC33" s="79"/>
       <c r="AD33" s="29"/>
       <c r="AE33" s="29"/>
-      <c r="AF33" s="130"/>
+      <c r="AF33" s="131"/>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -2720,13 +2745,13 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="69"/>
-      <c r="J34" s="71"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="70"/>
+      <c r="J34" s="72"/>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
       <c r="N34" s="25"/>
@@ -2746,10 +2771,10 @@
         <v>30</v>
       </c>
       <c r="AB34" s="23"/>
-      <c r="AC34" s="78"/>
+      <c r="AC34" s="79"/>
       <c r="AD34" s="29"/>
       <c r="AE34" s="29"/>
-      <c r="AF34" s="130"/>
+      <c r="AF34" s="131"/>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
@@ -2757,28 +2782,28 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="69"/>
-      <c r="J35" s="71"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="70"/>
+      <c r="J35" s="72"/>
       <c r="L35" s="34">
         <v>7</v>
       </c>
       <c r="M35" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="Z35" s="67"/>
+      <c r="Z35" s="68"/>
       <c r="AA35" s="28">
         <v>31</v>
       </c>
       <c r="AB35" s="23"/>
-      <c r="AC35" s="78"/>
+      <c r="AC35" s="79"/>
       <c r="AD35" s="29"/>
       <c r="AE35" s="29"/>
-      <c r="AF35" s="130"/>
+      <c r="AF35" s="131"/>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
@@ -2786,14 +2811,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="69"/>
-      <c r="J36" s="71"/>
-      <c r="L36" s="74"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="70"/>
+      <c r="J36" s="72"/>
+      <c r="L36" s="75"/>
       <c r="M36" s="10" t="s">
         <v>48</v>
       </c>
@@ -2812,15 +2837,15 @@
         <v>31</v>
       </c>
       <c r="Y36" s="48"/>
-      <c r="Z36" s="67"/>
+      <c r="Z36" s="68"/>
       <c r="AA36" s="28">
         <v>32</v>
       </c>
       <c r="AB36" s="23"/>
-      <c r="AC36" s="79"/>
+      <c r="AC36" s="80"/>
       <c r="AD36" s="29"/>
       <c r="AE36" s="29"/>
-      <c r="AF36" s="130"/>
+      <c r="AF36" s="131"/>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
@@ -2828,13 +2853,13 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="69"/>
-      <c r="J37" s="71"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="70"/>
+      <c r="J37" s="72"/>
       <c r="L37" s="34"/>
       <c r="M37" s="25"/>
       <c r="N37" s="25"/>
@@ -2854,10 +2879,10 @@
         <v>33</v>
       </c>
       <c r="AB37" s="23"/>
-      <c r="AC37" s="79"/>
+      <c r="AC37" s="80"/>
       <c r="AD37" s="29"/>
       <c r="AE37" s="29"/>
-      <c r="AF37" s="130"/>
+      <c r="AF37" s="131"/>
     </row>
     <row r="38" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
@@ -2865,13 +2890,13 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="69"/>
-      <c r="J38" s="71"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="70"/>
+      <c r="J38" s="72"/>
       <c r="L38" s="34"/>
       <c r="M38" s="10" t="s">
         <v>65</v>
@@ -2879,23 +2904,23 @@
       <c r="N38" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P38" s="80"/>
-      <c r="Q38" s="80" t="s">
+      <c r="P38" s="81"/>
+      <c r="Q38" s="81" t="s">
         <v>85</v>
       </c>
       <c r="X38" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="Y38" s="66"/>
+      <c r="Y38" s="67"/>
       <c r="Z38" s="21"/>
       <c r="AA38" s="28">
         <v>34</v>
       </c>
       <c r="AB38" s="23"/>
-      <c r="AC38" s="79"/>
+      <c r="AC38" s="80"/>
       <c r="AD38" s="29"/>
       <c r="AE38" s="29"/>
-      <c r="AF38" s="130"/>
+      <c r="AF38" s="131"/>
     </row>
     <row r="39" spans="1:32" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
@@ -2903,30 +2928,30 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="69"/>
-      <c r="J39" s="71"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="70"/>
+      <c r="J39" s="72"/>
       <c r="L39" s="46"/>
       <c r="N39" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="O39" s="81"/>
+      <c r="O39" s="82"/>
       <c r="P39" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="Z39" s="67"/>
+      <c r="Z39" s="68"/>
       <c r="AA39" s="28">
         <v>35</v>
       </c>
       <c r="AB39" s="23"/>
-      <c r="AC39" s="79"/>
+      <c r="AC39" s="80"/>
       <c r="AD39" s="29"/>
       <c r="AE39" s="29"/>
-      <c r="AF39" s="130"/>
+      <c r="AF39" s="131"/>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
@@ -2934,18 +2959,18 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C40" s="69"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="69"/>
-      <c r="J40" s="71"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="70"/>
+      <c r="J40" s="72"/>
       <c r="L40" s="46"/>
       <c r="N40" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="O40" s="82"/>
+      <c r="O40" s="83"/>
       <c r="P40" s="7" t="s">
         <v>89</v>
       </c>
@@ -2955,10 +2980,10 @@
         <v>36</v>
       </c>
       <c r="AB40" s="23"/>
-      <c r="AC40" s="79"/>
+      <c r="AC40" s="80"/>
       <c r="AD40" s="29"/>
       <c r="AE40" s="29"/>
-      <c r="AF40" s="130"/>
+      <c r="AF40" s="131"/>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
@@ -2966,14 +2991,14 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
       <c r="L41" s="46"/>
       <c r="M41" s="25"/>
       <c r="N41" s="25"/>
@@ -2993,10 +3018,10 @@
         <v>37</v>
       </c>
       <c r="AB41" s="23"/>
-      <c r="AC41" s="78"/>
+      <c r="AC41" s="79"/>
       <c r="AD41" s="29"/>
       <c r="AE41" s="29"/>
-      <c r="AF41" s="130"/>
+      <c r="AF41" s="131"/>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
@@ -3004,20 +3029,20 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="69"/>
-      <c r="J42" s="71"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="70"/>
+      <c r="J42" s="72"/>
       <c r="L42" s="34">
         <v>8</v>
       </c>
       <c r="M42" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="P42" s="80"/>
+      <c r="P42" s="81"/>
       <c r="Y42" s="25"/>
       <c r="Z42" s="21"/>
       <c r="AA42" s="28">
@@ -3027,7 +3052,7 @@
       <c r="AC42" s="23"/>
       <c r="AD42" s="29"/>
       <c r="AE42" s="29"/>
-      <c r="AF42" s="130"/>
+      <c r="AF42" s="131"/>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
@@ -3035,21 +3060,21 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="69"/>
-      <c r="J43" s="71"/>
-      <c r="L43" s="74"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="70"/>
+      <c r="J43" s="72"/>
+      <c r="L43" s="75"/>
       <c r="M43" s="6"/>
       <c r="N43" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O43" s="83"/>
-      <c r="P43" s="83"/>
-      <c r="Q43" s="83"/>
+      <c r="O43" s="84"/>
+      <c r="P43" s="84"/>
+      <c r="Q43" s="84"/>
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
       <c r="T43" s="6"/>
@@ -3066,7 +3091,7 @@
       <c r="AC43" s="23"/>
       <c r="AD43" s="29"/>
       <c r="AE43" s="29"/>
-      <c r="AF43" s="130"/>
+      <c r="AF43" s="131"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
@@ -3074,25 +3099,25 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="69"/>
-      <c r="J44" s="71"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="70"/>
+      <c r="J44" s="72"/>
       <c r="L44" s="46"/>
       <c r="M44" s="6"/>
       <c r="N44" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="O44" s="83"/>
-      <c r="P44" s="83"/>
-      <c r="Q44" s="83"/>
+      <c r="O44" s="84"/>
+      <c r="P44" s="84"/>
+      <c r="Q44" s="84"/>
       <c r="R44" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="S44" s="83"/>
+      <c r="S44" s="84"/>
       <c r="T44" s="6"/>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
@@ -3106,7 +3131,7 @@
       <c r="AC44" s="23"/>
       <c r="AD44" s="29"/>
       <c r="AE44" s="29"/>
-      <c r="AF44" s="130"/>
+      <c r="AF44" s="131"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
@@ -3114,25 +3139,25 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C45" s="69"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="69"/>
-      <c r="J45" s="71"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="70"/>
+      <c r="J45" s="72"/>
       <c r="L45" s="46"/>
       <c r="M45" s="6"/>
       <c r="N45" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="O45" s="83"/>
-      <c r="P45" s="83"/>
-      <c r="Q45" s="83"/>
+      <c r="O45" s="84"/>
+      <c r="P45" s="84"/>
+      <c r="Q45" s="84"/>
       <c r="R45" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="S45" s="83"/>
+      <c r="S45" s="84"/>
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
@@ -3147,7 +3172,7 @@
       <c r="AC45" s="23"/>
       <c r="AD45" s="29"/>
       <c r="AE45" s="29"/>
-      <c r="AF45" s="130"/>
+      <c r="AF45" s="131"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
@@ -3155,21 +3180,21 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="69"/>
-      <c r="J46" s="71"/>
-      <c r="L46" s="74"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="70"/>
+      <c r="J46" s="72"/>
+      <c r="L46" s="75"/>
       <c r="M46" s="6"/>
-      <c r="N46" s="65"/>
+      <c r="N46" s="66"/>
       <c r="O46" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P46" s="83"/>
-      <c r="Q46" s="83"/>
+      <c r="P46" s="84"/>
+      <c r="Q46" s="84"/>
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
       <c r="T46" s="6"/>
@@ -3186,7 +3211,7 @@
       <c r="AC46" s="23"/>
       <c r="AD46" s="29"/>
       <c r="AE46" s="29"/>
-      <c r="AF46" s="130"/>
+      <c r="AF46" s="131"/>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
@@ -3194,14 +3219,14 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C47" s="69"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="69"/>
-      <c r="J47" s="71"/>
-      <c r="L47" s="84"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="70"/>
+      <c r="J47" s="72"/>
+      <c r="L47" s="85"/>
       <c r="M47" s="25"/>
       <c r="N47" s="25"/>
       <c r="O47" s="25"/>
@@ -3223,7 +3248,7 @@
       <c r="AC47" s="23"/>
       <c r="AD47" s="29"/>
       <c r="AE47" s="29"/>
-      <c r="AF47" s="130"/>
+      <c r="AF47" s="131"/>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
@@ -3231,13 +3256,13 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C48" s="69"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="69"/>
-      <c r="J48" s="71"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="70"/>
+      <c r="J48" s="72"/>
       <c r="L48" s="34">
         <v>9</v>
       </c>
@@ -3255,7 +3280,7 @@
       <c r="AC48" s="23"/>
       <c r="AD48" s="29"/>
       <c r="AE48" s="29"/>
-      <c r="AF48" s="130"/>
+      <c r="AF48" s="131"/>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
@@ -3263,14 +3288,14 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C49" s="69"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="69"/>
-      <c r="J49" s="71"/>
-      <c r="L49" s="84"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="73"/>
+      <c r="H49" s="70"/>
+      <c r="J49" s="72"/>
+      <c r="L49" s="85"/>
       <c r="M49" s="7"/>
       <c r="N49" s="136" t="s">
         <v>98</v>
@@ -3290,7 +3315,7 @@
       <c r="AC49" s="23"/>
       <c r="AD49" s="29"/>
       <c r="AE49" s="29"/>
-      <c r="AF49" s="130"/>
+      <c r="AF49" s="131"/>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
@@ -3298,14 +3323,14 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C50" s="69"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="69"/>
-      <c r="J50" s="71"/>
-      <c r="L50" s="74"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="70"/>
+      <c r="J50" s="72"/>
+      <c r="L50" s="75"/>
       <c r="M50" s="10" t="s">
         <v>48</v>
       </c>
@@ -3316,7 +3341,7 @@
       <c r="P50" s="10"/>
       <c r="R50" s="20"/>
       <c r="S50" s="20"/>
-      <c r="V50" s="85">
+      <c r="V50" s="86">
         <v>0</v>
       </c>
       <c r="Z50" s="21"/>
@@ -3324,10 +3349,10 @@
         <v>46</v>
       </c>
       <c r="AB50" s="23"/>
-      <c r="AC50" s="86"/>
+      <c r="AC50" s="87"/>
       <c r="AD50" s="29"/>
       <c r="AE50" s="29"/>
-      <c r="AF50" s="130"/>
+      <c r="AF50" s="131"/>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
@@ -3335,14 +3360,14 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C51" s="69"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="72"/>
-      <c r="H51" s="69"/>
-      <c r="J51" s="71"/>
-      <c r="L51" s="74"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="70"/>
+      <c r="J51" s="72"/>
+      <c r="L51" s="75"/>
       <c r="M51" s="10" t="s">
         <v>65</v>
       </c>
@@ -3353,7 +3378,7 @@
       <c r="Q51" s="10"/>
       <c r="R51" s="20"/>
       <c r="S51" s="20"/>
-      <c r="V51" s="87">
+      <c r="V51" s="88">
         <v>1E-4</v>
       </c>
       <c r="Z51" s="21"/>
@@ -3361,10 +3386,10 @@
         <v>47</v>
       </c>
       <c r="AB51" s="23"/>
-      <c r="AC51" s="86"/>
+      <c r="AC51" s="87"/>
       <c r="AD51" s="29"/>
       <c r="AE51" s="29"/>
-      <c r="AF51" s="130"/>
+      <c r="AF51" s="131"/>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
@@ -3372,14 +3397,14 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C52" s="69"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="69"/>
-      <c r="J52" s="71"/>
-      <c r="L52" s="74"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="70"/>
+      <c r="J52" s="72"/>
+      <c r="L52" s="75"/>
       <c r="M52" s="10" t="s">
         <v>67</v>
       </c>
@@ -3388,7 +3413,7 @@
       </c>
       <c r="R52" s="20"/>
       <c r="S52" s="20"/>
-      <c r="V52" s="85">
+      <c r="V52" s="86">
         <v>0</v>
       </c>
       <c r="W52" s="20"/>
@@ -3397,10 +3422,10 @@
         <v>48</v>
       </c>
       <c r="AB52" s="23"/>
-      <c r="AC52" s="86"/>
+      <c r="AC52" s="87"/>
       <c r="AD52" s="29"/>
       <c r="AE52" s="29"/>
-      <c r="AF52" s="130"/>
+      <c r="AF52" s="131"/>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
@@ -3408,14 +3433,14 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C53" s="69"/>
-      <c r="D53" s="69"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="69"/>
-      <c r="J53" s="71"/>
-      <c r="L53" s="88"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="70"/>
+      <c r="J53" s="72"/>
+      <c r="L53" s="89"/>
       <c r="R53" s="20"/>
       <c r="S53" s="20"/>
       <c r="V53" s="20"/>
@@ -3423,9 +3448,9 @@
       <c r="Z53" s="21"/>
       <c r="AA53" s="7"/>
       <c r="AB53" s="7"/>
-      <c r="AC53" s="89"/>
-      <c r="AD53" s="89"/>
-      <c r="AE53" s="89"/>
+      <c r="AC53" s="90"/>
+      <c r="AD53" s="90"/>
+      <c r="AE53" s="90"/>
       <c r="AF53" s="11"/>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.2">
@@ -3434,13 +3459,13 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C54" s="69"/>
-      <c r="D54" s="69"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="69"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="69"/>
-      <c r="J54" s="71"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="70"/>
+      <c r="J54" s="72"/>
       <c r="L54" s="46"/>
       <c r="M54" s="30"/>
       <c r="N54" s="30"/>
@@ -3457,7 +3482,7 @@
       <c r="AC54" s="25"/>
       <c r="AD54" s="25"/>
       <c r="AE54" s="25"/>
-      <c r="AF54" s="67"/>
+      <c r="AF54" s="68"/>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
@@ -3465,13 +3490,13 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C55" s="69"/>
-      <c r="D55" s="69"/>
-      <c r="E55" s="69"/>
-      <c r="F55" s="69"/>
-      <c r="G55" s="72"/>
-      <c r="H55" s="69"/>
-      <c r="J55" s="71"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="73"/>
+      <c r="H55" s="70"/>
+      <c r="J55" s="72"/>
       <c r="L55" s="46" t="s">
         <v>103</v>
       </c>
@@ -3500,14 +3525,14 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C56" s="69"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="69"/>
-      <c r="G56" s="72"/>
-      <c r="H56" s="69"/>
-      <c r="J56" s="71"/>
-      <c r="L56" s="74"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="70"/>
+      <c r="J56" s="72"/>
+      <c r="L56" s="75"/>
       <c r="M56" s="25"/>
       <c r="N56" s="25"/>
       <c r="O56" s="25"/>
@@ -3531,29 +3556,29 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C57" s="69"/>
-      <c r="D57" s="69"/>
-      <c r="E57" s="69"/>
-      <c r="F57" s="69"/>
-      <c r="G57" s="72"/>
-      <c r="H57" s="69"/>
-      <c r="J57" s="71"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="73"/>
+      <c r="H57" s="70"/>
+      <c r="J57" s="72"/>
       <c r="K57" s="10"/>
-      <c r="L57" s="74"/>
-      <c r="M57" s="90"/>
-      <c r="N57" s="91" t="s">
+      <c r="L57" s="75"/>
+      <c r="M57" s="91"/>
+      <c r="N57" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="O57" s="90"/>
-      <c r="P57" s="90"/>
+      <c r="O57" s="91"/>
+      <c r="P57" s="91"/>
       <c r="Q57" s="25"/>
       <c r="R57" s="25"/>
       <c r="S57" s="25"/>
       <c r="T57" s="25"/>
       <c r="U57" s="25"/>
-      <c r="V57" s="91"/>
-      <c r="W57" s="90"/>
-      <c r="X57" s="92"/>
+      <c r="V57" s="92"/>
+      <c r="W57" s="91"/>
+      <c r="X57" s="93"/>
       <c r="Z57" s="21"/>
       <c r="AA57" s="137"/>
       <c r="AB57" s="137"/>
@@ -3568,21 +3593,21 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C58" s="69"/>
-      <c r="D58" s="69"/>
-      <c r="E58" s="69"/>
-      <c r="F58" s="69"/>
-      <c r="G58" s="72"/>
-      <c r="H58" s="69"/>
-      <c r="J58" s="71"/>
-      <c r="L58" s="74"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="73"/>
+      <c r="H58" s="70"/>
+      <c r="J58" s="72"/>
+      <c r="L58" s="75"/>
       <c r="M58" s="25" t="s">
         <v>105</v>
       </c>
       <c r="N58" s="25"/>
       <c r="O58" s="25"/>
       <c r="P58" s="25"/>
-      <c r="Q58" s="93"/>
+      <c r="Q58" s="94"/>
       <c r="R58" s="25"/>
       <c r="S58" s="25"/>
       <c r="T58" s="25"/>
@@ -3598,9 +3623,9 @@
       </c>
       <c r="AB58" s="7"/>
       <c r="AC58" s="7"/>
-      <c r="AD58" s="94"/>
+      <c r="AD58" s="95"/>
       <c r="AE58" s="25"/>
-      <c r="AF58" s="95"/>
+      <c r="AF58" s="96"/>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
@@ -3608,14 +3633,14 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C59" s="69"/>
-      <c r="D59" s="69"/>
-      <c r="E59" s="69"/>
-      <c r="F59" s="69"/>
-      <c r="G59" s="72"/>
-      <c r="H59" s="69"/>
-      <c r="J59" s="71"/>
-      <c r="L59" s="74"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="70"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="70"/>
+      <c r="G59" s="73"/>
+      <c r="H59" s="70"/>
+      <c r="J59" s="72"/>
+      <c r="L59" s="75"/>
       <c r="M59" s="25"/>
       <c r="N59" s="25"/>
       <c r="O59" s="25"/>
@@ -3626,10 +3651,10 @@
       <c r="V59" s="20"/>
       <c r="W59" s="20"/>
       <c r="Z59" s="21"/>
-      <c r="AA59" s="96" t="s">
+      <c r="AA59" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="AB59" s="96"/>
+      <c r="AB59" s="97"/>
       <c r="AC59" s="10"/>
       <c r="AD59" s="20" t="s">
         <v>108</v>
@@ -3643,36 +3668,36 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C60" s="69"/>
-      <c r="D60" s="69"/>
-      <c r="E60" s="69"/>
-      <c r="F60" s="69"/>
-      <c r="G60" s="72"/>
-      <c r="H60" s="69"/>
-      <c r="J60" s="71"/>
-      <c r="L60" s="97"/>
-      <c r="M60" s="98"/>
-      <c r="N60" s="98"/>
-      <c r="O60" s="98"/>
-      <c r="P60" s="98"/>
-      <c r="Q60" s="98"/>
-      <c r="R60" s="99"/>
-      <c r="S60" s="99"/>
-      <c r="T60" s="99"/>
-      <c r="U60" s="99"/>
-      <c r="V60" s="99"/>
-      <c r="W60" s="99"/>
-      <c r="X60" s="99"/>
-      <c r="Y60" s="99"/>
-      <c r="Z60" s="100"/>
-      <c r="AA60" s="101" t="s">
+      <c r="C60" s="70"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="73"/>
+      <c r="H60" s="70"/>
+      <c r="J60" s="72"/>
+      <c r="L60" s="98"/>
+      <c r="M60" s="99"/>
+      <c r="N60" s="99"/>
+      <c r="O60" s="99"/>
+      <c r="P60" s="99"/>
+      <c r="Q60" s="99"/>
+      <c r="R60" s="100"/>
+      <c r="S60" s="100"/>
+      <c r="T60" s="100"/>
+      <c r="U60" s="100"/>
+      <c r="V60" s="100"/>
+      <c r="W60" s="100"/>
+      <c r="X60" s="100"/>
+      <c r="Y60" s="100"/>
+      <c r="Z60" s="101"/>
+      <c r="AA60" s="102" t="s">
         <v>109</v>
       </c>
-      <c r="AB60" s="99"/>
-      <c r="AC60" s="102"/>
-      <c r="AD60" s="102"/>
-      <c r="AE60" s="102"/>
-      <c r="AF60" s="103"/>
+      <c r="AB60" s="100"/>
+      <c r="AC60" s="103"/>
+      <c r="AD60" s="103"/>
+      <c r="AE60" s="103"/>
+      <c r="AF60" s="104"/>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
@@ -3680,45 +3705,45 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C61" s="69"/>
-      <c r="D61" s="69"/>
-      <c r="E61" s="69"/>
-      <c r="F61" s="69"/>
-      <c r="G61" s="72"/>
-      <c r="H61" s="69"/>
-      <c r="J61" s="71"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="70"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="73"/>
+      <c r="H61" s="70"/>
+      <c r="J61" s="72"/>
       <c r="L61" s="25"/>
       <c r="M61" s="25"/>
       <c r="N61" s="25"/>
       <c r="O61" s="25"/>
       <c r="P61" s="25"/>
       <c r="Q61" s="25"/>
-      <c r="R61" s="104" t="e">
+      <c r="R61" s="105" t="e">
         <v>#REF!</v>
       </c>
-      <c r="S61" s="104" t="e">
+      <c r="S61" s="105" t="e">
         <v>#REF!</v>
       </c>
-      <c r="T61" s="104" t="e">
+      <c r="T61" s="105" t="e">
         <v>#REF!</v>
       </c>
-      <c r="U61" s="104" t="e">
+      <c r="U61" s="105" t="e">
         <v>#REF!</v>
       </c>
-      <c r="V61" s="104" t="e">
+      <c r="V61" s="105" t="e">
         <v>#REF!</v>
       </c>
-      <c r="W61" s="104" t="e">
+      <c r="W61" s="105" t="e">
         <v>#REF!</v>
       </c>
-      <c r="X61" s="104" t="e">
+      <c r="X61" s="105" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Y61" s="104" t="e">
+      <c r="Y61" s="105" t="e">
         <v>#REF!</v>
       </c>
       <c r="AA61" s="25"/>
-      <c r="AB61" s="105"/>
+      <c r="AB61" s="106"/>
       <c r="AC61" s="25"/>
       <c r="AD61" s="25"/>
       <c r="AE61" s="7"/>
@@ -3730,30 +3755,30 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C62" s="69"/>
-      <c r="D62" s="69"/>
-      <c r="E62" s="69"/>
-      <c r="F62" s="69"/>
-      <c r="G62" s="72"/>
-      <c r="H62" s="69"/>
-      <c r="J62" s="71"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="73"/>
+      <c r="H62" s="70"/>
+      <c r="J62" s="72"/>
       <c r="L62" s="25"/>
       <c r="M62" s="25"/>
       <c r="N62" s="25"/>
       <c r="O62" s="25"/>
       <c r="P62" s="25"/>
       <c r="Q62" s="25"/>
-      <c r="R62" s="106"/>
-      <c r="S62" s="106"/>
-      <c r="T62" s="106"/>
-      <c r="U62" s="106"/>
-      <c r="V62" s="106"/>
-      <c r="W62" s="106"/>
-      <c r="X62" s="106"/>
-      <c r="Y62" s="106"/>
+      <c r="R62" s="107"/>
+      <c r="S62" s="107"/>
+      <c r="T62" s="107"/>
+      <c r="U62" s="107"/>
+      <c r="V62" s="107"/>
+      <c r="W62" s="107"/>
+      <c r="X62" s="107"/>
+      <c r="Y62" s="107"/>
       <c r="AA62" s="7"/>
       <c r="AB62" s="25"/>
-      <c r="AC62" s="105"/>
+      <c r="AC62" s="106"/>
       <c r="AD62" s="7"/>
       <c r="AE62" s="7"/>
       <c r="AF62" s="7"/>
@@ -3764,30 +3789,30 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C63" s="69"/>
-      <c r="D63" s="69"/>
-      <c r="E63" s="69"/>
-      <c r="F63" s="69"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="69"/>
-      <c r="J63" s="71"/>
+      <c r="C63" s="70"/>
+      <c r="D63" s="70"/>
+      <c r="E63" s="70"/>
+      <c r="F63" s="70"/>
+      <c r="G63" s="73"/>
+      <c r="H63" s="70"/>
+      <c r="J63" s="72"/>
       <c r="L63" s="25"/>
       <c r="M63" s="25"/>
       <c r="N63" s="25"/>
       <c r="O63" s="25"/>
       <c r="P63" s="25"/>
       <c r="Q63" s="25"/>
-      <c r="R63" s="106"/>
-      <c r="S63" s="106"/>
-      <c r="T63" s="106"/>
-      <c r="U63" s="106"/>
-      <c r="V63" s="106"/>
-      <c r="W63" s="106"/>
-      <c r="X63" s="106"/>
-      <c r="Y63" s="106"/>
-      <c r="AA63" s="105"/>
-      <c r="AB63" s="107"/>
-      <c r="AC63" s="105"/>
+      <c r="R63" s="107"/>
+      <c r="S63" s="107"/>
+      <c r="T63" s="107"/>
+      <c r="U63" s="107"/>
+      <c r="V63" s="107"/>
+      <c r="W63" s="107"/>
+      <c r="X63" s="107"/>
+      <c r="Y63" s="107"/>
+      <c r="AA63" s="106"/>
+      <c r="AB63" s="108"/>
+      <c r="AC63" s="106"/>
       <c r="AD63" s="7"/>
       <c r="AE63" s="7"/>
       <c r="AF63" s="7"/>
@@ -3798,31 +3823,31 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C64" s="69"/>
-      <c r="D64" s="69"/>
-      <c r="E64" s="69"/>
-      <c r="F64" s="69"/>
-      <c r="G64" s="72"/>
-      <c r="H64" s="69"/>
-      <c r="J64" s="71"/>
-      <c r="L64" s="107"/>
-      <c r="M64" s="107"/>
-      <c r="N64" s="107"/>
-      <c r="O64" s="107"/>
-      <c r="P64" s="107"/>
-      <c r="Q64" s="107"/>
-      <c r="R64" s="106"/>
-      <c r="S64" s="106"/>
-      <c r="T64" s="106"/>
-      <c r="U64" s="106"/>
-      <c r="V64" s="106"/>
-      <c r="W64" s="106"/>
-      <c r="X64" s="106"/>
-      <c r="Y64" s="106"/>
-      <c r="Z64" s="104" t="e">
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="73"/>
+      <c r="H64" s="70"/>
+      <c r="J64" s="72"/>
+      <c r="L64" s="108"/>
+      <c r="M64" s="108"/>
+      <c r="N64" s="108"/>
+      <c r="O64" s="108"/>
+      <c r="P64" s="108"/>
+      <c r="Q64" s="108"/>
+      <c r="R64" s="107"/>
+      <c r="S64" s="107"/>
+      <c r="T64" s="107"/>
+      <c r="U64" s="107"/>
+      <c r="V64" s="107"/>
+      <c r="W64" s="107"/>
+      <c r="X64" s="107"/>
+      <c r="Y64" s="107"/>
+      <c r="Z64" s="105" t="e">
         <v>#REF!</v>
       </c>
-      <c r="AA64" s="105"/>
+      <c r="AA64" s="106"/>
       <c r="AB64" s="25"/>
       <c r="AD64"/>
     </row>
@@ -3832,20 +3857,20 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="C65" s="69"/>
-      <c r="D65" s="69"/>
-      <c r="E65" s="69"/>
-      <c r="F65" s="69"/>
-      <c r="G65" s="72"/>
-      <c r="H65" s="69"/>
-      <c r="J65" s="71"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="70"/>
+      <c r="F65" s="70"/>
+      <c r="G65" s="73"/>
+      <c r="H65" s="70"/>
+      <c r="J65" s="72"/>
       <c r="L65" s="25"/>
       <c r="M65" s="25"/>
       <c r="N65" s="25"/>
       <c r="O65" s="25"/>
       <c r="P65" s="25"/>
       <c r="Q65" s="25"/>
-      <c r="Z65" s="106"/>
+      <c r="Z65" s="107"/>
       <c r="AA65"/>
       <c r="AD65"/>
     </row>
@@ -3855,20 +3880,20 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="C66" s="69"/>
-      <c r="D66" s="69"/>
-      <c r="E66" s="69"/>
-      <c r="F66" s="69"/>
-      <c r="G66" s="72"/>
-      <c r="H66" s="69"/>
-      <c r="J66" s="71"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="73"/>
+      <c r="H66" s="70"/>
+      <c r="J66" s="72"/>
       <c r="L66" s="25"/>
       <c r="M66" s="25"/>
       <c r="N66" s="25"/>
       <c r="O66" s="25"/>
       <c r="P66" s="25"/>
       <c r="Q66" s="25"/>
-      <c r="Z66" s="106"/>
+      <c r="Z66" s="107"/>
       <c r="AA66"/>
       <c r="AD66"/>
     </row>
@@ -3878,34 +3903,34 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C67" s="69"/>
-      <c r="D67" s="69"/>
-      <c r="E67" s="69"/>
-      <c r="F67" s="69"/>
-      <c r="G67" s="72"/>
-      <c r="H67" s="69"/>
-      <c r="J67" s="71"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="70"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="70"/>
+      <c r="G67" s="73"/>
+      <c r="H67" s="70"/>
+      <c r="J67" s="72"/>
       <c r="L67" s="25"/>
       <c r="M67" s="25"/>
       <c r="N67" s="25"/>
       <c r="O67" s="25"/>
       <c r="P67" s="25"/>
       <c r="Q67" s="25"/>
-      <c r="Z67" s="106"/>
+      <c r="Z67" s="107"/>
       <c r="AA67"/>
       <c r="AD67"/>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A68" s="108"/>
-      <c r="B68" s="104"/>
-      <c r="C68" s="104"/>
-      <c r="D68" s="104"/>
-      <c r="E68" s="104"/>
-      <c r="F68" s="104"/>
-      <c r="G68" s="104"/>
-      <c r="H68" s="104"/>
-      <c r="I68" s="104"/>
-      <c r="J68" s="104"/>
+      <c r="A68" s="109"/>
+      <c r="B68" s="105"/>
+      <c r="C68" s="105"/>
+      <c r="D68" s="105"/>
+      <c r="E68" s="105"/>
+      <c r="F68" s="105"/>
+      <c r="G68" s="105"/>
+      <c r="H68" s="105"/>
+      <c r="I68" s="105"/>
+      <c r="J68" s="105"/>
       <c r="M68" s="25"/>
       <c r="N68" s="25"/>
       <c r="O68" s="25"/>
@@ -3921,14 +3946,19 @@
       <c r="C69" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D69" s="133"/>
-      <c r="E69" s="133"/>
-      <c r="F69" s="133"/>
-      <c r="G69" s="132">
-        <f>IF($D$9&gt;0,IRR(G18:G67,0.09),1)</f>
-        <v>1</v>
-      </c>
-      <c r="I69" s="69"/>
+      <c r="D69" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="E69" s="134" t="s">
+        <v>133</v>
+      </c>
+      <c r="F69" s="134" t="s">
+        <v>132</v>
+      </c>
+      <c r="G69" s="133" t="s">
+        <v>131</v>
+      </c>
+      <c r="I69" s="70"/>
       <c r="M69" s="25"/>
       <c r="N69" s="25"/>
       <c r="O69" s="25"/>
@@ -3939,37 +3969,37 @@
     </row>
     <row r="70" spans="1:32" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
-      <c r="D70" s="109"/>
-      <c r="E70" s="109"/>
-      <c r="F70" s="110"/>
-      <c r="G70" s="111"/>
-      <c r="H70" s="109"/>
-      <c r="I70" s="69"/>
-      <c r="M70" s="112"/>
-      <c r="N70" s="112"/>
-      <c r="O70" s="112"/>
-      <c r="P70" s="112"/>
-      <c r="Q70" s="112"/>
-      <c r="AA70" s="113"/>
-      <c r="AB70" s="113"/>
-      <c r="AC70" s="113"/>
-      <c r="AD70" s="113"/>
-      <c r="AE70" s="113"/>
+      <c r="D70" s="110"/>
+      <c r="E70" s="110"/>
+      <c r="F70" s="111"/>
+      <c r="G70" s="112"/>
+      <c r="H70" s="110"/>
+      <c r="I70" s="70"/>
+      <c r="M70" s="113"/>
+      <c r="N70" s="113"/>
+      <c r="O70" s="113"/>
+      <c r="P70" s="113"/>
+      <c r="Q70" s="113"/>
+      <c r="AA70" s="114"/>
+      <c r="AB70" s="114"/>
+      <c r="AC70" s="114"/>
+      <c r="AD70" s="114"/>
+      <c r="AE70" s="114"/>
       <c r="AF70" s="25"/>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>1</v>
       </c>
-      <c r="D71" s="109"/>
-      <c r="E71" s="109"/>
-      <c r="F71" s="109"/>
-      <c r="G71" s="114"/>
-      <c r="H71" s="109"/>
-      <c r="I71" s="115"/>
+      <c r="D71" s="110"/>
+      <c r="E71" s="110"/>
+      <c r="F71" s="110"/>
+      <c r="G71" s="115"/>
+      <c r="H71" s="110"/>
+      <c r="I71" s="116"/>
       <c r="M71" s="6"/>
-      <c r="N71" s="105"/>
-      <c r="O71" s="105"/>
+      <c r="N71" s="106"/>
+      <c r="O71" s="106"/>
       <c r="AA71" s="25"/>
       <c r="AB71" s="25"/>
       <c r="AC71" s="25"/>
@@ -3979,50 +4009,50 @@
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A72" s="30"/>
-      <c r="B72" s="116" t="s">
+      <c r="B72" s="117" t="s">
         <v>110</v>
       </c>
       <c r="D72" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="E72" s="117" t="s">
+      <c r="E72" s="118" t="s">
         <v>112</v>
       </c>
       <c r="G72" s="25"/>
-      <c r="H72" s="69"/>
-      <c r="M72" s="113"/>
-      <c r="N72" s="113"/>
-      <c r="O72" s="113"/>
-      <c r="P72" s="113"/>
-      <c r="Q72" s="113"/>
-      <c r="R72" s="113"/>
-      <c r="S72" s="113"/>
-      <c r="T72" s="113"/>
-      <c r="U72" s="113"/>
-      <c r="V72" s="113"/>
-      <c r="W72" s="113"/>
-      <c r="X72" s="113"/>
-      <c r="Y72" s="113"/>
-      <c r="AA72" s="112"/>
-      <c r="AB72" s="112"/>
-      <c r="AC72" s="112"/>
-      <c r="AD72" s="112"/>
-      <c r="AE72" s="112"/>
-      <c r="AF72" s="112"/>
+      <c r="H72" s="70"/>
+      <c r="M72" s="114"/>
+      <c r="N72" s="114"/>
+      <c r="O72" s="114"/>
+      <c r="P72" s="114"/>
+      <c r="Q72" s="114"/>
+      <c r="R72" s="114"/>
+      <c r="S72" s="114"/>
+      <c r="T72" s="114"/>
+      <c r="U72" s="114"/>
+      <c r="V72" s="114"/>
+      <c r="W72" s="114"/>
+      <c r="X72" s="114"/>
+      <c r="Y72" s="114"/>
+      <c r="AA72" s="113"/>
+      <c r="AB72" s="113"/>
+      <c r="AC72" s="113"/>
+      <c r="AD72" s="113"/>
+      <c r="AE72" s="113"/>
+      <c r="AF72" s="113"/>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A73" s="30"/>
-      <c r="B73" s="118" t="s">
+      <c r="B73" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="C73" s="118"/>
-      <c r="D73" s="118"/>
-      <c r="E73" s="119" t="s">
+      <c r="C73" s="119"/>
+      <c r="D73" s="119"/>
+      <c r="E73" s="120" t="s">
         <v>114</v>
       </c>
       <c r="F73" s="44"/>
-      <c r="G73" s="120"/>
-      <c r="I73" s="121"/>
+      <c r="G73" s="121"/>
+      <c r="I73" s="122"/>
       <c r="M73" s="25"/>
       <c r="N73" s="25"/>
       <c r="O73" s="25"/>
@@ -4045,27 +4075,27 @@
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A74" s="30"/>
-      <c r="B74" s="118"/>
-      <c r="C74" s="118"/>
-      <c r="D74" s="118"/>
-      <c r="E74" s="69"/>
+      <c r="B74" s="119"/>
+      <c r="C74" s="119"/>
+      <c r="D74" s="119"/>
+      <c r="E74" s="70"/>
       <c r="F74" s="44"/>
-      <c r="G74" s="120"/>
-      <c r="I74" s="121"/>
-      <c r="L74" s="113"/>
-      <c r="M74" s="112"/>
-      <c r="N74" s="112"/>
-      <c r="O74" s="112"/>
-      <c r="P74" s="112"/>
-      <c r="Q74" s="112"/>
-      <c r="R74" s="112"/>
-      <c r="S74" s="112"/>
-      <c r="T74" s="112"/>
-      <c r="U74" s="112"/>
-      <c r="V74" s="112"/>
-      <c r="W74" s="112"/>
-      <c r="X74" s="112"/>
-      <c r="Y74" s="112"/>
+      <c r="G74" s="121"/>
+      <c r="I74" s="122"/>
+      <c r="L74" s="114"/>
+      <c r="M74" s="113"/>
+      <c r="N74" s="113"/>
+      <c r="O74" s="113"/>
+      <c r="P74" s="113"/>
+      <c r="Q74" s="113"/>
+      <c r="R74" s="113"/>
+      <c r="S74" s="113"/>
+      <c r="T74" s="113"/>
+      <c r="U74" s="113"/>
+      <c r="V74" s="113"/>
+      <c r="W74" s="113"/>
+      <c r="X74" s="113"/>
+      <c r="Y74" s="113"/>
       <c r="AA74" s="25"/>
       <c r="AB74" s="25"/>
       <c r="AC74" s="25"/>
@@ -4097,16 +4127,18 @@
     </row>
     <row r="76" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="30"/>
-      <c r="B76" s="116" t="s">
+      <c r="B76" s="117" t="s">
         <v>115</v>
       </c>
-      <c r="E76" s="116" t="s">
+      <c r="E76" s="117" t="s">
         <v>116</v>
       </c>
-      <c r="G76" s="120" t="s">
+      <c r="G76" s="121" t="s">
         <v>111</v>
       </c>
-      <c r="H76" s="131"/>
+      <c r="H76" s="132" t="s">
+        <v>129</v>
+      </c>
       <c r="M76" s="25"/>
       <c r="N76" s="25"/>
       <c r="O76" s="25"/>
@@ -4120,7 +4152,7 @@
       <c r="W76" s="25"/>
       <c r="X76" s="25"/>
       <c r="Y76" s="25"/>
-      <c r="Z76" s="112"/>
+      <c r="Z76" s="113"/>
       <c r="AA76" s="25"/>
       <c r="AB76" s="25"/>
       <c r="AC76" s="25"/>
@@ -4130,10 +4162,10 @@
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A77" s="30"/>
-      <c r="B77" s="118" t="s">
+      <c r="B77" s="119" t="s">
         <v>117</v>
       </c>
-      <c r="C77" s="118"/>
+      <c r="C77" s="119"/>
       <c r="M77" s="25"/>
       <c r="N77" s="25"/>
       <c r="O77" s="25"/>
@@ -4157,8 +4189,8 @@
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A78" s="30"/>
-      <c r="B78" s="118"/>
-      <c r="C78" s="118"/>
+      <c r="B78" s="119"/>
+      <c r="C78" s="119"/>
       <c r="M78" s="25"/>
       <c r="N78" s="25"/>
       <c r="O78" s="25"/>
@@ -4181,21 +4213,21 @@
       <c r="AF78" s="25"/>
     </row>
     <row r="79" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="113">
+      <c r="A79" s="114">
         <v>1</v>
       </c>
-      <c r="B79" s="113">
+      <c r="B79" s="114">
         <f>A79+1</f>
         <v>2</v>
       </c>
-      <c r="C79" s="113"/>
-      <c r="D79" s="113"/>
-      <c r="E79" s="113"/>
-      <c r="F79" s="113"/>
-      <c r="G79" s="113"/>
-      <c r="H79" s="113"/>
-      <c r="I79" s="113"/>
-      <c r="J79" s="113"/>
+      <c r="C79" s="114"/>
+      <c r="D79" s="114"/>
+      <c r="E79" s="114"/>
+      <c r="F79" s="114"/>
+      <c r="G79" s="114"/>
+      <c r="H79" s="114"/>
+      <c r="I79" s="114"/>
+      <c r="J79" s="114"/>
       <c r="M79" s="25"/>
       <c r="N79" s="25"/>
       <c r="O79" s="25"/>
@@ -4218,17 +4250,19 @@
       <c r="AF79" s="25"/>
     </row>
     <row r="80" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="116" t="s">
+      <c r="B80" s="117" t="s">
         <v>118</v>
       </c>
-      <c r="E80" s="116" t="s">
+      <c r="E80" s="117" t="s">
         <v>119</v>
       </c>
-      <c r="G80" s="120" t="s">
+      <c r="G80" s="121" t="s">
         <v>111</v>
       </c>
-      <c r="H80" s="131"/>
-      <c r="I80" s="122"/>
+      <c r="H80" s="132" t="s">
+        <v>130</v>
+      </c>
+      <c r="I80" s="123"/>
       <c r="M80" s="25"/>
       <c r="N80" s="25"/>
       <c r="O80" s="25"/>
@@ -4251,11 +4285,11 @@
       <c r="AF80" s="25"/>
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B81" s="118" t="s">
+      <c r="B81" s="119" t="s">
         <v>117</v>
       </c>
-      <c r="E81" s="120"/>
-      <c r="F81" s="120" t="s">
+      <c r="E81" s="121"/>
+      <c r="F81" s="121" t="s">
         <v>120</v>
       </c>
       <c r="M81" s="25"/>
@@ -4280,9 +4314,9 @@
       <c r="AF81" s="25"/>
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="E82" s="116"/>
-      <c r="H82" s="123"/>
-      <c r="I82" s="70"/>
+      <c r="E82" s="117"/>
+      <c r="H82" s="124"/>
+      <c r="I82" s="71"/>
       <c r="M82" s="25"/>
       <c r="N82" s="25"/>
       <c r="O82" s="25"/>
@@ -4305,12 +4339,12 @@
       <c r="AF82" s="25"/>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A83" s="124" t="s">
+      <c r="A83" s="125" t="s">
         <v>121</v>
       </c>
-      <c r="B83" s="124"/>
-      <c r="E83" s="125"/>
-      <c r="I83" s="70"/>
+      <c r="B83" s="125"/>
+      <c r="E83" s="126"/>
+      <c r="I83" s="71"/>
       <c r="M83" s="25"/>
       <c r="N83" s="25"/>
       <c r="O83" s="25"/>
@@ -4333,13 +4367,13 @@
       <c r="AF83" s="25"/>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A84" s="124" t="s">
+      <c r="A84" s="125" t="s">
         <v>122</v>
       </c>
-      <c r="B84" s="124"/>
-      <c r="G84" s="126"/>
-      <c r="H84" s="127"/>
-      <c r="I84" s="70"/>
+      <c r="B84" s="125"/>
+      <c r="G84" s="127"/>
+      <c r="H84" s="128"/>
+      <c r="I84" s="71"/>
       <c r="M84" s="25"/>
       <c r="N84" s="25"/>
       <c r="O84" s="25"/>
@@ -4362,11 +4396,11 @@
       <c r="AF84" s="25"/>
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A85" s="124" t="s">
+      <c r="A85" s="125" t="s">
         <v>123</v>
       </c>
-      <c r="B85" s="124"/>
-      <c r="I85" s="70"/>
+      <c r="B85" s="125"/>
+      <c r="I85" s="71"/>
       <c r="M85" s="25"/>
       <c r="N85" s="25"/>
       <c r="O85" s="25"/>
@@ -4389,7 +4423,7 @@
       <c r="AF85" s="25"/>
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="I86" s="70"/>
+      <c r="I86" s="71"/>
       <c r="M86" s="25"/>
       <c r="N86" s="25"/>
       <c r="O86" s="25"/>
@@ -4412,13 +4446,13 @@
       <c r="AF86" s="25"/>
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A87" s="124" t="s">
+      <c r="A87" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="B87" s="120"/>
+      <c r="B87" s="121"/>
       <c r="C87" s="25"/>
       <c r="G87" s="25"/>
-      <c r="I87" s="70"/>
+      <c r="I87" s="71"/>
       <c r="M87" s="25"/>
       <c r="N87" s="25"/>
       <c r="O87" s="25"/>
@@ -4441,10 +4475,10 @@
       <c r="AF87" s="25"/>
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A88" s="124" t="s">
+      <c r="A88" s="125" t="s">
         <v>125</v>
       </c>
-      <c r="I88" s="70"/>
+      <c r="I88" s="71"/>
       <c r="M88" s="25"/>
       <c r="N88" s="25"/>
       <c r="O88" s="25"/>
@@ -4467,11 +4501,11 @@
       <c r="AF88" s="25"/>
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A89" s="124" t="s">
+      <c r="A89" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="G89" s="125"/>
-      <c r="I89" s="70"/>
+      <c r="G89" s="126"/>
+      <c r="I89" s="71"/>
       <c r="M89" s="25"/>
       <c r="N89" s="25"/>
       <c r="O89" s="25"/>
@@ -4494,10 +4528,10 @@
       <c r="AF89" s="25"/>
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A90" s="124" t="s">
+      <c r="A90" s="125" t="s">
         <v>127</v>
       </c>
-      <c r="I90" s="70"/>
+      <c r="I90" s="71"/>
       <c r="M90" s="25"/>
       <c r="N90" s="25"/>
       <c r="O90" s="25"/>
@@ -4520,7 +4554,7 @@
       <c r="AF90" s="25"/>
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="I91" s="70"/>
+      <c r="I91" s="71"/>
       <c r="M91" s="25"/>
       <c r="N91" s="25"/>
       <c r="O91" s="25"/>
@@ -4543,7 +4577,7 @@
       <c r="AF91" s="25"/>
     </row>
     <row r="92" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B92" s="120"/>
+      <c r="B92" s="121"/>
       <c r="C92" s="25"/>
       <c r="D92" s="25"/>
       <c r="E92" s="25"/>
@@ -4672,9 +4706,9 @@
       <c r="AF96" s="25"/>
     </row>
     <row r="97" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B97" s="120"/>
-      <c r="C97" s="116"/>
-      <c r="G97" s="116"/>
+      <c r="B97" s="121"/>
+      <c r="C97" s="117"/>
+      <c r="G97" s="117"/>
       <c r="M97" s="25"/>
       <c r="N97" s="25"/>
       <c r="O97" s="25"/>
@@ -4697,7 +4731,7 @@
       <c r="AF97" s="25"/>
     </row>
     <row r="98" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="C98" s="116"/>
+      <c r="C98" s="117"/>
       <c r="M98" s="25"/>
       <c r="N98" s="25"/>
       <c r="O98" s="25"/>
@@ -4764,7 +4798,7 @@
       <c r="AF100" s="25"/>
     </row>
     <row r="101" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="G101" s="126"/>
+      <c r="G101" s="127"/>
       <c r="M101" s="25"/>
       <c r="N101" s="25"/>
       <c r="O101" s="25"/>
@@ -4831,9 +4865,9 @@
       <c r="AF103" s="25"/>
     </row>
     <row r="104" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B104" s="120"/>
-      <c r="C104" s="116"/>
-      <c r="G104" s="116"/>
+      <c r="B104" s="121"/>
+      <c r="C104" s="117"/>
+      <c r="G104" s="117"/>
       <c r="M104" s="25"/>
       <c r="N104" s="25"/>
       <c r="O104" s="25"/>
@@ -4856,7 +4890,7 @@
       <c r="AF104" s="25"/>
     </row>
     <row r="105" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="C105" s="116"/>
+      <c r="C105" s="117"/>
       <c r="M105" s="25"/>
       <c r="N105" s="25"/>
       <c r="O105" s="25"/>
@@ -4879,7 +4913,7 @@
       <c r="AF105" s="25"/>
     </row>
     <row r="106" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="G106" s="128"/>
+      <c r="G106" s="129"/>
       <c r="M106" s="25"/>
       <c r="N106" s="25"/>
       <c r="O106" s="25"/>
@@ -4946,9 +4980,9 @@
       <c r="AF108" s="25"/>
     </row>
     <row r="109" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B109" s="120"/>
-      <c r="C109" s="116"/>
-      <c r="G109" s="116"/>
+      <c r="B109" s="121"/>
+      <c r="C109" s="117"/>
+      <c r="G109" s="117"/>
       <c r="M109" s="25"/>
       <c r="N109" s="25"/>
       <c r="O109" s="25"/>
@@ -4971,7 +5005,7 @@
       <c r="AF109" s="25"/>
     </row>
     <row r="110" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="C110" s="116"/>
+      <c r="C110" s="117"/>
       <c r="M110" s="25"/>
       <c r="N110" s="25"/>
       <c r="O110" s="25"/>
@@ -4994,7 +5028,7 @@
       <c r="AF110" s="25"/>
     </row>
     <row r="111" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="G111" s="123"/>
+      <c r="G111" s="124"/>
       <c r="M111" s="25"/>
       <c r="N111" s="25"/>
       <c r="O111" s="25"/>
@@ -5317,7 +5351,7 @@
       <c r="X125" s="25"/>
       <c r="Y125" s="25"/>
       <c r="Z125" s="25"/>
-      <c r="AB125" s="72"/>
+      <c r="AB125" s="73"/>
       <c r="AC125"/>
     </row>
     <row r="126" spans="12:32" x14ac:dyDescent="0.2">
